--- a/Data/EC/NIT-9010339534.xlsx
+++ b/Data/EC/NIT-9010339534.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{506F2FF1-328B-42D4-ACE6-57D398047A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D38A8E8B-42A9-438D-87C3-446F724CD50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B24B9A59-146E-4577-A5E8-EA5714269288}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3B13A6AD-5F93-40DA-B8F5-9A94FB0FC289}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,43 +71,43 @@
     <t>ILSE ERLINA PAUTT FLOREZ</t>
   </si>
   <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
     <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -151,7 +151,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,7 +521,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{343D3A0E-B164-DDF1-EA93-0BF894365A76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDBDA885-9DA2-1A15-9F14-3738028BDFD2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,28 +872,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69EC8A0B-FF59-4AAE-814D-0123302EA4EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0005E355-E820-419D-82F5-484ED9A1F8CB}">
   <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -906,7 +906,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -917,7 +917,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -928,7 +928,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -939,8 +939,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
@@ -955,8 +955,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -971,8 +971,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
@@ -987,8 +987,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>27</v>
       </c>
@@ -1007,7 +1007,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>33125</v>
+        <v>26500</v>
       </c>
       <c r="G16" s="18">
         <v>828116</v>
@@ -1059,7 +1059,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1082,7 +1082,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1105,7 +1105,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1128,7 +1128,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1151,7 +1151,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1174,7 +1174,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1197,7 +1197,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1220,7 +1220,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1243,7 +1243,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1266,7 +1266,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1289,7 +1289,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1312,7 +1312,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="21" t="s">
         <v>8</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>23</v>
       </c>
       <c r="F28" s="24">
-        <v>26500</v>
+        <v>33125</v>
       </c>
       <c r="G28" s="24">
         <v>828116</v>
@@ -1335,7 +1335,7 @@
       <c r="I28" s="25"/>
       <c r="J28" s="26"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="32" t="s">
         <v>33</v>
       </c>
@@ -1346,7 +1346,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="32" t="s">
         <v>32</v>
       </c>

--- a/Data/EC/NIT-9010339534.xlsx
+++ b/Data/EC/NIT-9010339534.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D38A8E8B-42A9-438D-87C3-446F724CD50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BA262E6-D3E2-4877-83D8-037A1959A4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3B13A6AD-5F93-40DA-B8F5-9A94FB0FC289}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{93F8AA3C-23CD-4C5A-B9FB-EEE092CED2EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,43 +71,43 @@
     <t>ILSE ERLINA PAUTT FLOREZ</t>
   </si>
   <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
     <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -151,7 +151,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,7 +206,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -219,9 +221,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -421,23 +421,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,10 +465,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,7 +521,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDBDA885-9DA2-1A15-9F14-3738028BDFD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54F7984B-8300-8FBC-5C10-E8A149CDF72A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,28 +872,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0005E355-E820-419D-82F5-484ED9A1F8CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE485154-6D75-4857-B976-49E6B5AA4D9C}">
   <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -906,7 +906,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -917,7 +917,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -928,7 +928,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -939,8 +939,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
@@ -955,8 +955,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -971,8 +971,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
@@ -987,8 +987,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>27</v>
       </c>
@@ -1007,7 +1007,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>26500</v>
+        <v>33125</v>
       </c>
       <c r="G16" s="18">
         <v>828116</v>
@@ -1059,7 +1059,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1082,7 +1082,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1105,7 +1105,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1128,7 +1128,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1151,7 +1151,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1174,7 +1174,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1197,7 +1197,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1220,7 +1220,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1243,7 +1243,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1266,7 +1266,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1289,7 +1289,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1312,7 +1312,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="21" t="s">
         <v>8</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>23</v>
       </c>
       <c r="F28" s="24">
-        <v>33125</v>
+        <v>26500</v>
       </c>
       <c r="G28" s="24">
         <v>828116</v>
@@ -1335,7 +1335,7 @@
       <c r="I28" s="25"/>
       <c r="J28" s="26"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="32" t="s">
         <v>33</v>
       </c>
@@ -1346,7 +1346,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="32" t="s">
         <v>32</v>
       </c>
